--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit1-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit1-Robo2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H2">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I2">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J2">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N2">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O2">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P2">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q2">
-        <v>0.07030316139733331</v>
+        <v>0.02435079320255555</v>
       </c>
       <c r="R2">
-        <v>0.6327284525759999</v>
+        <v>0.219157138823</v>
       </c>
       <c r="S2">
-        <v>0.03722206192385916</v>
+        <v>0.009906848888071449</v>
       </c>
       <c r="T2">
-        <v>0.03722206192385916</v>
+        <v>0.009906848888071447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H3">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I3">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J3">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.610326</v>
       </c>
       <c r="O3">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P3">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q3">
-        <v>0.2137056494026666</v>
+        <v>0.2675378224282222</v>
       </c>
       <c r="R3">
-        <v>1.923350844624</v>
+        <v>2.407840401854</v>
       </c>
       <c r="S3">
-        <v>0.113146617555186</v>
+        <v>0.1088447820402799</v>
       </c>
       <c r="T3">
-        <v>0.113146617555186</v>
+        <v>0.1088447820402799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H4">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I4">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J4">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N4">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O4">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P4">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q4">
-        <v>0.0005639159679999999</v>
+        <v>0.003903412051666666</v>
       </c>
       <c r="R4">
-        <v>0.005075243712</v>
+        <v>0.035130708465</v>
       </c>
       <c r="S4">
-        <v>0.0002985657353603042</v>
+        <v>0.00158805969982449</v>
       </c>
       <c r="T4">
-        <v>0.0002985657353603042</v>
+        <v>0.00158805969982449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I5">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J5">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N5">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O5">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P5">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q5">
-        <v>0.09483194456088888</v>
+        <v>0.02623757716377778</v>
       </c>
       <c r="R5">
-        <v>0.853487501048</v>
+        <v>0.236138194474</v>
       </c>
       <c r="S5">
-        <v>0.05020884470409143</v>
+        <v>0.01067446591938457</v>
       </c>
       <c r="T5">
-        <v>0.05020884470409143</v>
+        <v>0.01067446591938457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I6">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J6">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>2.610326</v>
       </c>
       <c r="O6">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P6">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q6">
         <v>0.2882675813391111</v>
@@ -824,10 +824,10 @@
         <v>2.594408232052</v>
       </c>
       <c r="S6">
-        <v>0.1526234887589635</v>
+        <v>0.1172784534738157</v>
       </c>
       <c r="T6">
-        <v>0.1526234887589635</v>
+        <v>0.1172784534738156</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I7">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J7">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N7">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O7">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P7">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q7">
-        <v>0.0007606663306666667</v>
+        <v>0.004205861963333333</v>
       </c>
       <c r="R7">
-        <v>0.006845996976</v>
+        <v>0.03785275767</v>
       </c>
       <c r="S7">
-        <v>0.000402735363541466</v>
+        <v>0.00171110807636681</v>
       </c>
       <c r="T7">
-        <v>0.000402735363541466</v>
+        <v>0.00171110807636681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H8">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I8">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J8">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N8">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O8">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P8">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q8">
-        <v>0.1006163094248889</v>
+        <v>0.03806170138555555</v>
       </c>
       <c r="R8">
-        <v>0.905546784824</v>
+        <v>0.3425553124699999</v>
       </c>
       <c r="S8">
-        <v>0.05327138105208232</v>
+        <v>0.01548497910983967</v>
       </c>
       <c r="T8">
-        <v>0.05327138105208232</v>
+        <v>0.01548497910983966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H9">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I9">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J9">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>2.610326</v>
       </c>
       <c r="O9">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P9">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q9">
-        <v>0.3058507372751111</v>
+        <v>0.4181771255622221</v>
       </c>
       <c r="R9">
-        <v>2.752656635476</v>
+        <v>3.763594130059999</v>
       </c>
       <c r="S9">
-        <v>0.1619329039553545</v>
+        <v>0.1701307040362955</v>
       </c>
       <c r="T9">
-        <v>0.1619329039553545</v>
+        <v>0.1701307040362955</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H10">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I10">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J10">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N10">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O10">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P10">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q10">
-        <v>0.0008070638986666667</v>
+        <v>0.006101259316666665</v>
       </c>
       <c r="R10">
-        <v>0.007263575088000001</v>
+        <v>0.05491133384999999</v>
       </c>
       <c r="S10">
-        <v>0.0004273005909777101</v>
+        <v>0.002482229370286437</v>
       </c>
       <c r="T10">
-        <v>0.0004273005909777101</v>
+        <v>0.002482229370286437</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H11">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I11">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J11">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N11">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O11">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P11">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q11">
-        <v>0.04954112335288888</v>
+        <v>0.01783771517733334</v>
       </c>
       <c r="R11">
-        <v>0.445870110176</v>
+        <v>0.160539436596</v>
       </c>
       <c r="S11">
-        <v>0.02622958519314497</v>
+        <v>0.007257075664859826</v>
       </c>
       <c r="T11">
-        <v>0.02622958519314497</v>
+        <v>0.007257075664859823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H12">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I12">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J12">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>2.610326</v>
       </c>
       <c r="O12">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P12">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q12">
-        <v>0.1505937674471111</v>
+        <v>0.1959797956453333</v>
       </c>
       <c r="R12">
-        <v>1.355343907024</v>
+        <v>1.763818160808</v>
       </c>
       <c r="S12">
-        <v>0.07973198396560634</v>
+        <v>0.07973219617214278</v>
       </c>
       <c r="T12">
-        <v>0.07973198396560634</v>
+        <v>0.07973219617214276</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H13">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I13">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J13">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N13">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O13">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P13">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q13">
-        <v>0.0003973794346666667</v>
+        <v>0.00285937102</v>
       </c>
       <c r="R13">
-        <v>0.003576414912</v>
+        <v>0.02573433918</v>
       </c>
       <c r="S13">
-        <v>0.0002103928419496632</v>
+        <v>0.001163303239218419</v>
       </c>
       <c r="T13">
-        <v>0.0002103928419496632</v>
+        <v>0.001163303239218419</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H14">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I14">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J14">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N14">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O14">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P14">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q14">
-        <v>0.1513195725911111</v>
+        <v>0.09586268510077778</v>
       </c>
       <c r="R14">
-        <v>1.36187615332</v>
+        <v>0.862764165907</v>
       </c>
       <c r="S14">
-        <v>0.08011626204752555</v>
+        <v>0.03900066529243555</v>
       </c>
       <c r="T14">
-        <v>0.08011626204752555</v>
+        <v>0.03900066529243554</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H15">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I15">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J15">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>2.610326</v>
       </c>
       <c r="O15">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P15">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q15">
-        <v>0.4599771459088888</v>
+        <v>1.053226225965111</v>
       </c>
       <c r="R15">
-        <v>4.139794313179999</v>
+        <v>9.479036033685999</v>
       </c>
       <c r="S15">
-        <v>0.2435352474665541</v>
+        <v>0.4284933545612433</v>
       </c>
       <c r="T15">
-        <v>0.2435352474665541</v>
+        <v>0.4284933545612432</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H16">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I16">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J16">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N16">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O16">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P16">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q16">
-        <v>0.001213765093333333</v>
+        <v>0.01536670929833333</v>
       </c>
       <c r="R16">
-        <v>0.01092388584</v>
+        <v>0.138300383685</v>
       </c>
       <c r="S16">
-        <v>0.000642628845803024</v>
+        <v>0.006251774455935753</v>
       </c>
       <c r="T16">
-        <v>0.000642628845803024</v>
+        <v>0.006251774455935753</v>
       </c>
     </row>
   </sheetData>
